--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -134,21 +134,21 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe Clica em visualizar comprovante.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe modal com o comprovante.</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Clica em visualizar comprovante.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe modal com o comprovante.</t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
@@ -176,13 +176,13 @@
     <t>TC8</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
   </si>
   <si>
     <t>TC10</t>
@@ -1565,123 +1565,123 @@
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B81" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78">
-      <c r="A78" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="C78" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B80" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C81" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D81" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E81" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F81" t="s" s="5">
-        <v>25</v>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
@@ -1858,8 +1858,8 @@
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:F79"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="B87:F87"/>
   </mergeCells>

--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -134,13 +134,22 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe Clica em excluir comprovante.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exclui o comprovante.</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Chefe Clica em visualizar comprovante.</t>
   </si>
   <si>
     <t>SYSTEM Exibe modal com o comprovante.</t>
   </si>
   <si>
-    <t>TC4</t>
+    <t>TC5</t>
   </si>
   <si>
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
@@ -149,15 +158,6 @@
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
   </si>
   <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe Clica em excluir comprovante.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exclui o comprovante.</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
@@ -170,19 +170,19 @@
     <t>TC7</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
   </si>
   <si>
-    <t>TC8</t>
+    <t>TC9</t>
   </si>
   <si>
     <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
   </si>
   <si>
     <t>TC10</t>
@@ -1565,123 +1565,123 @@
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75"/>
+      <c r="E75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="76"/>
-    <row r="77">
-      <c r="A77" t="s" s="4">
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B78" t="s" s="4">
         <v>55</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D77" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="4">
+      <c r="D78" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F77" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="9">
+      <c r="F78" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="9">
+      <c r="B79" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F78" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="8">
+      <c r="F79" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B79" t="s" s="8">
+      <c r="B80" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="5">
+      <c r="C80" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B80" t="s" s="5">
+      <c r="B81" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C80" t="s" s="5">
+      <c r="C81" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D80" t="s" s="5">
+      <c r="D81" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E80" t="s" s="5">
+      <c r="E81" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F80" t="s" s="5">
+      <c r="F81" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B81" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
@@ -1858,8 +1858,8 @@
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:F80"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="B87:F87"/>
   </mergeCells>

--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -143,21 +143,21 @@
     <t>TC4</t>
   </si>
   <si>
+    <t>Chefe Clica para detalhar a solicitação de diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
     <t>Chefe Clica em visualizar comprovante.</t>
   </si>
   <si>
     <t>SYSTEM Exibe modal com o comprovante.</t>
   </si>
   <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe Clica para detalhar a solicitação de diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
@@ -170,19 +170,19 @@
     <t>TC7</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
   </si>
   <si>
     <t>TC10</t>
@@ -1443,245 +1443,245 @@
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70">
-      <c r="A70" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="C70" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D70" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F70" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B72" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C72" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B73" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C73" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D73" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E73" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F73" t="s" s="5">
-        <v>25</v>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="10">
         <v>1.0</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B81" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
+      <c r="C81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78">
-      <c r="A78" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="C78" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B80" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C81" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D81" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E81" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F81" t="s" s="5">
-        <v>25</v>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
@@ -1856,10 +1856,10 @@
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:F79"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="B87:F87"/>
   </mergeCells>

--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -101,7 +101,7 @@
     <t>Chefe Indica uma solicitação de diárias a fim de realizar a prestação de contas.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe os detalhes referentes à solicitação selecionada, bem como identificando e apresentando os tipos de documentos/comprovantes a serem informados/consultados pelo usuário; e Exibe o histórico da tramitação da prestação de contas.</t>
+    <t>SYSTEM Exibe os detalhes referentes à solicitação selecionada, dados do beneficiário, bem como identificando e apresentando os tipos de documentos/comprovantes a serem informados/consultados pelo usuário; e Exibe o histórico da tramitação da prestação de contas.</t>
   </si>
   <si>
     <t>Chefe Clica em confirmar (enviar prestação de contas).</t>
@@ -119,7 +119,7 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Chefe Visualiza o histório da tramitação da prestação de contas.</t>
+    <t>Chefe Verifica o histório da tramitação da prestação de contas.</t>
   </si>
   <si>
     <t>SYSTEM Exibe o histórico da tramitação da prestação de contas.</t>
@@ -134,30 +134,30 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe Clica em visualizar comprovante.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe modal com o comprovante.</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Chefe Clica para detalhar a solicitação de diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
     <t>Chefe Clica em excluir comprovante.</t>
   </si>
   <si>
     <t>SYSTEM Exclui o comprovante.</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Clica para detalhar a solicitação de diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe Clica em visualizar comprovante.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe modal com o comprovante.</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
@@ -170,19 +170,19 @@
     <t>TC7</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
   </si>
   <si>
-    <t>TC8</t>
+    <t>TC9</t>
   </si>
   <si>
     <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
   </si>
   <si>
     <t>TC10</t>
@@ -1443,123 +1443,123 @@
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67"/>
+      <c r="E67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="68"/>
-    <row r="69">
-      <c r="A69" t="s" s="4">
+    <row r="69"/>
+    <row r="70">
+      <c r="A70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B70" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D69" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="4">
+      <c r="D70" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F69" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="9">
+      <c r="F70" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="9">
+      <c r="B71" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F70" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="8">
+      <c r="F71" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B72" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="5">
+      <c r="C72" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B72" t="s" s="5">
+      <c r="B73" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C72" t="s" s="5">
+      <c r="C73" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D72" t="s" s="5">
+      <c r="D73" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E72" t="s" s="5">
+      <c r="E73" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F72" t="s" s="5">
+      <c r="F73" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
@@ -1856,8 +1856,8 @@
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:F72"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="B86:D86"/>

--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -134,30 +134,30 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe Clica para detalhar a solicitação de diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Chefe Clica em excluir comprovante.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exclui o comprovante.</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
     <t>Chefe Clica em visualizar comprovante.</t>
   </si>
   <si>
     <t>SYSTEM Exibe modal com o comprovante.</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Clica para detalhar a solicitação de diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe Clica em excluir comprovante.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exclui o comprovante.</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
@@ -170,13 +170,13 @@
     <t>TC7</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
   </si>
   <si>
     <t>TC9</t>
@@ -1443,123 +1443,123 @@
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70">
-      <c r="A70" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="C70" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D70" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F70" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B72" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C72" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B73" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C73" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D73" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E73" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F73" t="s" s="5">
-        <v>25</v>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
@@ -1856,8 +1856,8 @@
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:F71"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="B86:D86"/>

--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -134,30 +134,30 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe Clica em excluir comprovante.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exclui o comprovante.</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Chefe Clica em visualizar comprovante.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe modal com o comprovante.</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Clica em excluir comprovante.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exclui o comprovante.</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe Clica em visualizar comprovante.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe modal com o comprovante.</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
@@ -176,13 +176,13 @@
     <t>TC8</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
   </si>
   <si>
     <t>TC10</t>

--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -143,21 +143,21 @@
     <t>TC4</t>
   </si>
   <si>
+    <t>Chefe Clica para detalhar a solicitação de diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
     <t>Chefe Clica em visualizar comprovante.</t>
   </si>
   <si>
     <t>SYSTEM Exibe modal com o comprovante.</t>
   </si>
   <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe Clica para detalhar a solicitação de diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
@@ -170,19 +170,19 @@
     <t>TC7</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
   </si>
   <si>
-    <t>TC8</t>
+    <t>TC9</t>
   </si>
   <si>
     <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
   </si>
   <si>
     <t>TC10</t>
@@ -1443,123 +1443,123 @@
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67"/>
+      <c r="E67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="68"/>
-    <row r="69">
-      <c r="A69" t="s" s="4">
+    <row r="69"/>
+    <row r="70">
+      <c r="A70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B70" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D69" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="4">
+      <c r="D70" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F69" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="9">
+      <c r="F70" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="9">
+      <c r="B71" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F70" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="8">
+      <c r="F71" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B72" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="5">
+      <c r="C72" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B72" t="s" s="5">
+      <c r="B73" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C72" t="s" s="5">
+      <c r="C73" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D72" t="s" s="5">
+      <c r="D73" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E72" t="s" s="5">
+      <c r="E73" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F72" t="s" s="5">
+      <c r="F73" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
@@ -1856,8 +1856,8 @@
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:F72"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="B86:D86"/>

--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -134,21 +134,21 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe Clica para detalhar a solicitação de diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Chefe Clica em excluir comprovante.</t>
   </si>
   <si>
     <t>SYSTEM Exclui o comprovante.</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Clica para detalhar a solicitação de diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
@@ -170,19 +170,19 @@
     <t>TC7</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
   </si>
   <si>
     <t>TC10</t>

--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -134,30 +134,30 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe Clica em visualizar comprovante.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe modal com o comprovante.</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Chefe Clica em excluir comprovante.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exclui o comprovante.</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Clica em excluir comprovante.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exclui o comprovante.</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Chefe Clica em visualizar comprovante.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe modal com o comprovante.</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
@@ -176,13 +176,13 @@
     <t>TC8</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que se trata de um usuário com perfil OPERADOR; Exibe tanto as solicitações do próprio usuário quanto as solicitações dos demais servidores lotados na mesma unidade administrativa dele (OPERADOR).</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que a solicitação indicada pelo usuário ainda não pode ter sua prestação de contas realizada; Exibe mensagem de erro (MSG212 - Prestação de contas ainda não pode ser realizada) para o usuário, impedindo que ele preste contas (anexa arquivos e etc).</t>
   </si>
   <si>
     <t>TC10</t>
@@ -1565,123 +1565,123 @@
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75"/>
+      <c r="E75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="76"/>
-    <row r="77">
-      <c r="A77" t="s" s="4">
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B78" t="s" s="4">
         <v>55</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D77" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="4">
+      <c r="D78" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F77" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="9">
+      <c r="F78" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="9">
+      <c r="B79" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F78" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="8">
+      <c r="F79" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B79" t="s" s="8">
+      <c r="B80" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="5">
+      <c r="C80" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B80" t="s" s="5">
+      <c r="B81" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C80" t="s" s="5">
+      <c r="C81" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D80" t="s" s="5">
+      <c r="D81" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E80" t="s" s="5">
+      <c r="E81" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F80" t="s" s="5">
+      <c r="F81" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B81" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
@@ -1858,8 +1858,8 @@
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:F80"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="B87:F87"/>
   </mergeCells>

--- a/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial do sistema</t>
+    <t>O usuário devidamente autenticado e na tela inicial do sistema.</t>
   </si>
   <si>
     <t>#</t>
@@ -119,7 +119,7 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Chefe Verifica o histório da tramitação da prestação de contas.</t>
+    <t>Chefe Verifica o histórico da tramitação da prestação de contas.</t>
   </si>
   <si>
     <t>SYSTEM Exibe o histórico da tramitação da prestação de contas.</t>
@@ -134,28 +134,28 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Chefe Clica em excluir comprovante.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exclui o comprovante.</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Chefe Clica em visualizar comprovante.</t>
   </si>
   <si>
     <t>SYSTEM Exibe modal com o comprovante.</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Clica em excluir comprovante.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exclui o comprovante.</t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias.</t>
   </si>
   <si>
     <t>TC6</t>
@@ -170,7 +170,7 @@
     <t>TC7</t>
   </si>
   <si>
-    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
+    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
   </si>
   <si>
     <t>TC8</t>
